--- a/Entrega 4/Pruebas/TERMINAR_EXAMEN.xlsx
+++ b/Entrega 4/Pruebas/TERMINAR_EXAMEN.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raziel\Desktop\Avance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F5BDCA5-E0A8-49D9-BEDF-675320B2F0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E081B-9D46-4278-98CE-B7E01A9C7F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F3E67B3-3937-439B-8072-67C82AFCB91E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3F3E67B3-3937-439B-8072-67C82AFCB91E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -47,15 +49,9 @@
     <t>Terminar examen</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Preguntas del examen incompletas</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>Si el usuario quiere terminar el examen cuando el examen aun tiene preguntas sin contestar, entonces el sistema muestra un mensaje inidicando que el examen tiene preguntas sin contestar</t>
   </si>
   <si>
@@ -63,6 +59,48 @@
   </si>
   <si>
     <t>Si el tiempo del examen finaliza, entonces el sistema cierra automaticamente el examen y cambia el estatus a "Terminado"</t>
+  </si>
+  <si>
+    <t>Termina examen</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Preguntas contestadas</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Error: el examen tiene preguntas sin contestar</t>
+  </si>
+  <si>
+    <t>El usuario tiene respuesta en sus preguntas y puede finalizar el examen</t>
+  </si>
+  <si>
+    <t>Se cierra la ventana del examen</t>
+  </si>
+  <si>
+    <t>Caso de uso (Datos)</t>
+  </si>
+  <si>
+    <t>20/25</t>
+  </si>
+  <si>
+    <t>25/30</t>
+  </si>
+  <si>
+    <t>30/30</t>
   </si>
 </sst>
 </file>
@@ -98,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149CA9CC-7E87-4573-9B50-16FEF4E8C3A8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,25 +482,237 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDF2ED3-9EA0-4102-ADFC-242791E079A0}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF79E8C5-150E-4F8C-858E-FE8CBAD29CE5}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="169.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
